--- a/Data/reg_cjo_m.xlsx
+++ b/Data/reg_cjo_m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YWYD5I\Documents\ESTP-Young\ESTP-ys-JD-webinar\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37DB075-BCDA-46F6-BE14-0C93FECFC1F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFDF9AA-FC45-4B15-8EC8-46544C9681DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
